--- a/Template.xlsx
+++ b/Template.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="786"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="ENTITY" sheetId="1" r:id="rId1"/>
     <sheet name="ROC-SROC" sheetId="2" r:id="rId2"/>
-    <sheet name="YEARINCOMESTATEMENT" sheetId="3" r:id="rId3"/>
-    <sheet name="YEARAPPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
+    <sheet name="FINANCIALSTATEMENTS" sheetId="3" r:id="rId3"/>
+    <sheet name="APPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="BOARD" sheetId="5" r:id="rId5"/>
     <sheet name="PARTICIPATION" sheetId="6" r:id="rId6"/>
     <sheet name="MEMBER" sheetId="7" r:id="rId7"/>
-    <sheet name="DEDUCTIONFOROTHER" sheetId="8" r:id="rId8"/>
+    <sheet name="ALLOCATIONOFRESERVES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,20 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>typeOfOrganisation</t>
-  </si>
-  <si>
-    <t>organisationName</t>
-  </si>
-  <si>
-    <t>organisationURL</t>
-  </si>
-  <si>
     <t>branch</t>
   </si>
   <si>
@@ -63,48 +54,18 @@
     <t>resultsSurpluses</t>
   </si>
   <si>
-    <t>profitsThirdPartyResults</t>
-  </si>
-  <si>
-    <t>profitsExtraordinaryResults</t>
-  </si>
-  <si>
     <t>yearNetProfit</t>
   </si>
   <si>
-    <t>deductionForLegalReserve</t>
-  </si>
-  <si>
-    <t>deductionForEducationAndTrainingReserve</t>
-  </si>
-  <si>
     <t>retainedEarnings</t>
   </si>
   <si>
     <t>interestPayment</t>
   </si>
   <si>
-    <t>allocationToVoluntaryReserves</t>
-  </si>
-  <si>
-    <t>totalOrganisationRefunds</t>
-  </si>
-  <si>
-    <t>lossTreatmentLiabilities</t>
-  </si>
-  <si>
-    <t>lossTreatmentLossesGeneratedByMembers</t>
-  </si>
-  <si>
     <t>allocatioOfProfitsIndivisiblesReserves</t>
   </si>
   <si>
-    <t>deliversRefunds</t>
-  </si>
-  <si>
-    <t>appliesOtherDeduction</t>
-  </si>
-  <si>
     <t>BOARD ID</t>
   </si>
   <si>
@@ -144,9 +105,6 @@
     <t>genre</t>
   </si>
   <si>
-    <t>percentageTotalOrganisationRefunds</t>
-  </si>
-  <si>
     <t>participatesInBoard</t>
   </si>
   <si>
@@ -157,6 +115,42 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>profitsNonMemberyResults</t>
+  </si>
+  <si>
+    <t>profitsExtraEntityResults</t>
+  </si>
+  <si>
+    <t>allocationForLegalReserve</t>
+  </si>
+  <si>
+    <t>allocationForEducationAndTrainingReserve</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesDebts</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesLosses</t>
+  </si>
+  <si>
+    <t>distributionOfReturns</t>
+  </si>
+  <si>
+    <t>otherDeduction</t>
+  </si>
+  <si>
+    <t>amountOfRefunds</t>
+  </si>
+  <si>
+    <t>typeOfEntity</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>entityURL</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -244,11 +238,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -272,6 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +563,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -573,33 +581,30 @@
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -628,13 +633,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -653,49 +658,49 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9"/>
     </row>
@@ -711,84 +716,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -823,15 +816,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9"/>
       <c r="D1" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E1" s="9"/>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H1" s="9"/>
     </row>
@@ -845,71 +838,71 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9"/>
       <c r="D3" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B4" s="11"/>
       <c r="D4" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -935,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD36"/>
     </sheetView>
   </sheetViews>
@@ -957,19 +950,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9"/>
       <c r="D1" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E1" s="9"/>
       <c r="G1" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H1" s="9"/>
       <c r="J1" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K1" s="9"/>
     </row>
@@ -985,109 +978,109 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9"/>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H3" s="9"/>
       <c r="J3" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9"/>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H4" s="9"/>
       <c r="J4" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H5" s="9"/>
       <c r="J5" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H6" s="10"/>
       <c r="J6" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E7" s="10"/>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H7" s="10"/>
       <c r="J7" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9"/>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H10" s="9"/>
       <c r="J10" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K10" s="9"/>
     </row>
@@ -1103,109 +1096,109 @@
     </row>
     <row r="12" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E12" s="9"/>
       <c r="G12" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H12" s="9"/>
       <c r="J12" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9"/>
       <c r="D13" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E13" s="9"/>
       <c r="G13" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H13" s="9"/>
       <c r="J13" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E14" s="9"/>
       <c r="G14" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H14" s="9"/>
       <c r="J14" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E15" s="9"/>
       <c r="G15" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H15" s="9"/>
       <c r="J15" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E16" s="9"/>
       <c r="G16" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H16" s="9"/>
       <c r="J16" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K16" s="9"/>
     </row>
     <row r="19" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E19" s="9"/>
       <c r="G19" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H19" s="9"/>
       <c r="J19" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K19" s="9"/>
     </row>
@@ -1221,91 +1214,91 @@
     </row>
     <row r="21" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E21" s="9"/>
       <c r="G21" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H21" s="9"/>
       <c r="J21" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E22" s="9"/>
       <c r="G22" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H22" s="9"/>
       <c r="J22" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E23" s="9"/>
       <c r="G23" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H23" s="9"/>
       <c r="J23" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E24" s="9"/>
       <c r="G24" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H24" s="9"/>
       <c r="J24" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E25" s="9"/>
       <c r="G25" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H25" s="9"/>
       <c r="J25" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K25" s="9"/>
     </row>
@@ -1478,7 +1471,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD46"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1496,15 +1489,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7"/>
       <c r="D1" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="9"/>
       <c r="G1" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H1" s="7"/>
     </row>
@@ -1516,87 +1509,87 @@
       <c r="G2" s="6"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -1633,16 +1626,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="12"/>
       <c r="D1" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E1" s="9"/>
       <c r="G1" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H1" s="9"/>
     </row>
@@ -1656,31 +1649,31 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H4" s="9"/>
     </row>
